--- a/biology/Botanique/Juncus_squarrosus/Juncus_squarrosus.xlsx
+++ b/biology/Botanique/Juncus_squarrosus/Juncus_squarrosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juncus squarrosus, de noms communs Jonc rude, Jonc raide ou Brossière, est une espèce de plantes vivace du genre Juncus, de la famille des Juncaceae.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce jonc mesure de 20 à 60 cm ; il est glabre, à souche grosse fibreuse. Les tiges raides, peu nombreuses, sont nues ; les feuilles sont toutes radicales, en touffe étalée en rosette, arquées, ascendantes, linéaires-canaliculées, dures, non noueuses, bien plus courtes que les tiges[1].
-Appareil reproducteur
-Les fleurs sont d'un jaune roussâtre, en panicule étroite et lâche bien plus longue que les bractées ; le périanthe est à divisions lancéolées, obtuses ou suraiguës. Il y a six étamines, à anthères bien plus longues que le filet ; la capsule est obovale, mucronulée, roussâtre, égalant le périanthe. Les graines sont non appendiculées[1]. L'inflorescence mesure de 30 à 100 mm[2]. 
-La floraison a lieu de juin à août[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce jonc mesure de 20 à 60 cm ; il est glabre, à souche grosse fibreuse. Les tiges raides, peu nombreuses, sont nues ; les feuilles sont toutes radicales, en touffe étalée en rosette, arquées, ascendantes, linéaires-canaliculées, dures, non noueuses, bien plus courtes que les tiges.
 </t>
         </is>
       </c>
@@ -543,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boréale[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont d'un jaune roussâtre, en panicule étroite et lâche bien plus longue que les bractées ; le périanthe est à divisions lancéolées, obtuses ou suraiguës. Il y a six étamines, à anthères bien plus longues que le filet ; la capsule est obovale, mucronulée, roussâtre, égalant le périanthe. Les graines sont non appendiculées. L'inflorescence mesure de 30 à 100 mm. 
+La floraison a lieu de juin à août.
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jonc raide pousse dans les tourbières, les landes, les prairies et pelouses humides[1], jusqu'à une altitude de 1 800 m[2].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boréale.
 </t>
         </is>
       </c>
@@ -605,15 +628,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jonc raide pousse dans les tourbières, les landes, les prairies et pelouses humides, jusqu'à une altitude de 1 800 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Juncus_squarrosus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juncus_squarrosus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Juncus sprengelii Willd., 1787
 Juncus squarrosus L., 1753 subsp. squarrosus
 Juncus strictus Lucé, 1823
-Tenageia squarrosa (L.) Fourr., 1869[3]</t>
+Tenageia squarrosa (L.) Fourr., 1869</t>
         </is>
       </c>
     </row>
